--- a/ps_product.xlsx
+++ b/ps_product.xlsx
@@ -432,6 +432,45 @@
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
     <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="10" max="10"/>
+    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="30" customWidth="1" min="12" max="12"/>
+    <col width="30" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="30" customWidth="1" min="16" max="16"/>
+    <col width="30" customWidth="1" min="17" max="17"/>
+    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
+    <col width="30" customWidth="1" min="20" max="20"/>
+    <col width="30" customWidth="1" min="21" max="21"/>
+    <col width="30" customWidth="1" min="22" max="22"/>
+    <col width="30" customWidth="1" min="23" max="23"/>
+    <col width="30" customWidth="1" min="24" max="24"/>
+    <col width="30" customWidth="1" min="25" max="25"/>
+    <col width="30" customWidth="1" min="26" max="26"/>
+    <col width="30" customWidth="1" min="27" max="27"/>
+    <col width="30" customWidth="1" min="28" max="28"/>
+    <col width="30" customWidth="1" min="29" max="29"/>
+    <col width="30" customWidth="1" min="30" max="30"/>
+    <col width="30" customWidth="1" min="31" max="31"/>
+    <col width="30" customWidth="1" min="32" max="32"/>
+    <col width="30" customWidth="1" min="33" max="33"/>
+    <col width="30" customWidth="1" min="34" max="34"/>
+    <col width="30" customWidth="1" min="35" max="35"/>
+    <col width="30" customWidth="1" min="36" max="36"/>
+    <col width="30" customWidth="1" min="37" max="37"/>
+    <col width="30" customWidth="1" min="38" max="38"/>
+    <col width="30" customWidth="1" min="39" max="39"/>
+    <col width="30" customWidth="1" min="40" max="40"/>
+    <col width="30" customWidth="1" min="41" max="41"/>
+    <col width="30" customWidth="1" min="42" max="42"/>
+    <col width="30" customWidth="1" min="43" max="43"/>
+    <col width="30" customWidth="1" min="44" max="44"/>
+    <col width="30" customWidth="1" min="45" max="45"/>
+    <col width="30" customWidth="1" min="46" max="46"/>
+    <col width="30" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
     <row r="1">
